--- a/results/I3_N5_M3_T45_C100_DepCentral_s2_mean_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepCentral_s2_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>592.3960085944831</v>
+        <v>591.8371978589363</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3799998760223389</v>
+        <v>0.6719999313354492</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1.951072380911211e-12</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.21600859374647</v>
+        <v>35.83719785893628</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.134510687494964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.134510687494964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>245.6200000007366</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>308.56</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,17 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -667,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -711,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -758,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -780,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -802,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -885,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.931626069824</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -893,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>30.66483080554364</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.82817771006826</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -917,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.16295425176391</v>
+        <v>38.33477654169549</v>
       </c>
     </row>
     <row r="8">
@@ -955,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -983,20 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>101.4989999999998</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="4">
@@ -1065,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>115.2720000000172</v>
+        <v>124.2</v>
       </c>
     </row>
     <row r="5">
@@ -1076,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>33.01999999999934</v>
+        <v>65.59999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -1087,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>107.7910000000126</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -1098,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>69.85299999999916</v>
+        <v>131.4</v>
       </c>
     </row>
     <row r="8">
@@ -1109,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>107.7910000000291</v>
+        <v>131.4</v>
       </c>
     </row>
     <row r="9">
@@ -1120,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2720000000446</v>
+        <v>124.2</v>
       </c>
     </row>
     <row r="10">
@@ -1131,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>101.4990000000003</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1178,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>7.791000000028912</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="3">
@@ -1189,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>15.27200000004444</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="4">
@@ -1200,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1.499000000000308</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1247,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>9.427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1269,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>10.723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1291,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>10.706</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1305,7 +1280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1332,7 +1307,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1343,23 +1318,12 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
         <v>1</v>
       </c>
     </row>
